--- a/models/calculation engines/cbix2/outputs/default/global_factors.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/global_factors.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
         <v>0.975</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K2" t="n">
         <v>145.89</v>
@@ -653,7 +653,7 @@
         <v>4797</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>0.12</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>0.003</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>0.975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K3" t="n">
         <v>145.89</v>
@@ -759,7 +759,7 @@
         <v>4797</v>
       </c>
       <c r="P3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>0.12</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>0.003</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +847,7 @@
         <v>0.975</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K4" t="n">
         <v>145.89</v>
@@ -865,7 +865,7 @@
         <v>4797</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>0.12</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>0.003</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -953,7 +953,7 @@
         <v>0.975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K5" t="n">
         <v>145.89</v>
@@ -971,7 +971,7 @@
         <v>4797</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>0.12</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>0.003</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>0.975</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K6" t="n">
         <v>145.89</v>
@@ -1077,7 +1077,7 @@
         <v>4797</v>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.12</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>0.003</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1165,7 +1165,7 @@
         <v>0.975</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K7" t="n">
         <v>145.89</v>
@@ -1183,7 +1183,7 @@
         <v>4797</v>
       </c>
       <c r="P7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.12</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>0.003</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1271,7 +1271,7 @@
         <v>0.975</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K8" t="n">
         <v>145.89</v>
@@ -1289,7 +1289,7 @@
         <v>4797</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>0.12</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>0.003</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1377,7 +1377,7 @@
         <v>0.975</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K9" t="n">
         <v>145.89</v>
@@ -1395,7 +1395,7 @@
         <v>4797</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>0.12</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1431,16 +1431,16 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>0.003</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1483,7 +1483,7 @@
         <v>0.975</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K10" t="n">
         <v>145.89</v>
@@ -1501,7 +1501,7 @@
         <v>4797</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.12</v>
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>0.003</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1589,7 +1589,7 @@
         <v>0.975</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K11" t="n">
         <v>145.89</v>
@@ -1607,7 +1607,7 @@
         <v>4797</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>0.12</v>
@@ -1631,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1643,16 +1643,16 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>0.003</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1695,7 +1695,7 @@
         <v>0.975</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K12" t="n">
         <v>145.89</v>
@@ -1713,7 +1713,7 @@
         <v>4797</v>
       </c>
       <c r="P12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>0.12</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>0.003</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1801,7 +1801,7 @@
         <v>0.975</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K13" t="n">
         <v>145.89</v>
@@ -1819,7 +1819,7 @@
         <v>4797</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
         <v>0.12</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>0.003</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +1907,7 @@
         <v>0.975</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K14" t="n">
         <v>145.89</v>
@@ -1925,7 +1925,7 @@
         <v>4797</v>
       </c>
       <c r="P14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>0.12</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>0.003</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2013,7 +2013,7 @@
         <v>0.975</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K15" t="n">
         <v>145.89</v>
@@ -2031,7 +2031,7 @@
         <v>4797</v>
       </c>
       <c r="P15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
         <v>0.12</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2067,16 +2067,16 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>0.003</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2119,7 +2119,7 @@
         <v>0.975</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K16" t="n">
         <v>145.89</v>
@@ -2137,7 +2137,7 @@
         <v>4797</v>
       </c>
       <c r="P16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0.12</v>
@@ -2161,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>0.003</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2225,7 +2225,7 @@
         <v>0.975</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K17" t="n">
         <v>145.89</v>
@@ -2243,7 +2243,7 @@
         <v>4797</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.12</v>
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2279,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>0.003</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2331,7 +2331,7 @@
         <v>0.975</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K18" t="n">
         <v>145.89</v>
@@ -2349,7 +2349,7 @@
         <v>4797</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
         <v>0.12</v>
@@ -2373,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2385,16 +2385,16 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>0.003</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2437,7 +2437,7 @@
         <v>0.975</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K19" t="n">
         <v>145.89</v>
@@ -2455,7 +2455,7 @@
         <v>4797</v>
       </c>
       <c r="P19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>0.12</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2491,16 +2491,16 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>0.003</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2543,7 +2543,7 @@
         <v>0.975</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K20" t="n">
         <v>145.89</v>
@@ -2561,7 +2561,7 @@
         <v>4797</v>
       </c>
       <c r="P20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>0.12</v>
@@ -2585,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>0.003</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2649,7 +2649,7 @@
         <v>0.975</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K21" t="n">
         <v>145.89</v>
@@ -2667,7 +2667,7 @@
         <v>4797</v>
       </c>
       <c r="P21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>0.12</v>
@@ -2691,10 +2691,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2703,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
@@ -2723,7 +2723,7 @@
         <v>0.003</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2755,7 +2755,7 @@
         <v>0.975</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K22" t="n">
         <v>145.89</v>
@@ -2773,7 +2773,7 @@
         <v>4797</v>
       </c>
       <c r="P22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.12</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2809,16 +2809,16 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>0.003</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2861,7 +2861,7 @@
         <v>0.975</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K23" t="n">
         <v>145.89</v>
@@ -2879,7 +2879,7 @@
         <v>4797</v>
       </c>
       <c r="P23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
         <v>0.12</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>0.003</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2967,7 +2967,7 @@
         <v>0.975</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K24" t="n">
         <v>145.89</v>
@@ -2985,7 +2985,7 @@
         <v>4797</v>
       </c>
       <c r="P24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
         <v>0.12</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -3021,16 +3021,16 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>0.003</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3073,7 +3073,7 @@
         <v>0.975</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K25" t="n">
         <v>145.89</v>
@@ -3091,7 +3091,7 @@
         <v>4797</v>
       </c>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
         <v>0.12</v>
@@ -3115,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3127,16 +3127,16 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>0.003</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3179,7 +3179,7 @@
         <v>0.975</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K26" t="n">
         <v>145.89</v>
@@ -3197,7 +3197,7 @@
         <v>4797</v>
       </c>
       <c r="P26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>0.12</v>
@@ -3221,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3233,16 +3233,16 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>0.003</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3285,7 +3285,7 @@
         <v>0.975</v>
       </c>
       <c r="J27" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K27" t="n">
         <v>145.89</v>
@@ -3303,7 +3303,7 @@
         <v>4797</v>
       </c>
       <c r="P27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.12</v>
@@ -3327,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3339,16 +3339,16 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>0.003</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3391,7 +3391,7 @@
         <v>0.975</v>
       </c>
       <c r="J28" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K28" t="n">
         <v>145.89</v>
@@ -3409,7 +3409,7 @@
         <v>4797</v>
       </c>
       <c r="P28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.12</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -3445,16 +3445,16 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>0.003</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3497,7 +3497,7 @@
         <v>0.975</v>
       </c>
       <c r="J29" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K29" t="n">
         <v>145.89</v>
@@ -3515,7 +3515,7 @@
         <v>4797</v>
       </c>
       <c r="P29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.12</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>0.003</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3603,7 +3603,7 @@
         <v>0.975</v>
       </c>
       <c r="J30" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K30" t="n">
         <v>145.89</v>
@@ -3621,7 +3621,7 @@
         <v>4797</v>
       </c>
       <c r="P30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
         <v>0.12</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3657,16 +3657,16 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>0.003</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3709,7 +3709,7 @@
         <v>0.975</v>
       </c>
       <c r="J31" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K31" t="n">
         <v>145.89</v>
@@ -3727,7 +3727,7 @@
         <v>4797</v>
       </c>
       <c r="P31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.12</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -3763,16 +3763,16 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>0.003</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3815,7 +3815,7 @@
         <v>0.975</v>
       </c>
       <c r="J32" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K32" t="n">
         <v>145.89</v>
@@ -3833,7 +3833,7 @@
         <v>4797</v>
       </c>
       <c r="P32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
         <v>0.12</v>
@@ -3857,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>0.003</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3921,7 +3921,7 @@
         <v>0.975</v>
       </c>
       <c r="J33" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K33" t="n">
         <v>145.89</v>
@@ -3939,7 +3939,7 @@
         <v>4797</v>
       </c>
       <c r="P33" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
         <v>0.12</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3975,16 +3975,16 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>0.003</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4027,7 +4027,7 @@
         <v>0.975</v>
       </c>
       <c r="J34" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K34" t="n">
         <v>145.89</v>
@@ -4045,7 +4045,7 @@
         <v>4797</v>
       </c>
       <c r="P34" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
         <v>0.12</v>
@@ -4069,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -4081,16 +4081,16 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>0.003</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4133,7 +4133,7 @@
         <v>0.975</v>
       </c>
       <c r="J35" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K35" t="n">
         <v>145.89</v>
@@ -4151,7 +4151,7 @@
         <v>4797</v>
       </c>
       <c r="P35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
         <v>0.12</v>
@@ -4175,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -4187,16 +4187,16 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>0.003</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4239,7 +4239,7 @@
         <v>0.975</v>
       </c>
       <c r="J36" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K36" t="n">
         <v>145.89</v>
@@ -4257,7 +4257,7 @@
         <v>4797</v>
       </c>
       <c r="P36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
         <v>0.12</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -4293,16 +4293,16 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>0.003</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4345,7 +4345,7 @@
         <v>0.975</v>
       </c>
       <c r="J37" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K37" t="n">
         <v>145.89</v>
@@ -4363,7 +4363,7 @@
         <v>4797</v>
       </c>
       <c r="P37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
         <v>0.12</v>
@@ -4387,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>0.003</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4451,7 +4451,7 @@
         <v>0.975</v>
       </c>
       <c r="J38" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K38" t="n">
         <v>145.89</v>
@@ -4469,7 +4469,7 @@
         <v>4797</v>
       </c>
       <c r="P38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
         <v>0.12</v>
@@ -4493,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -4505,16 +4505,16 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>0.003</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4557,7 +4557,7 @@
         <v>0.975</v>
       </c>
       <c r="J39" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K39" t="n">
         <v>145.89</v>
@@ -4575,7 +4575,7 @@
         <v>4797</v>
       </c>
       <c r="P39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
         <v>0.12</v>
@@ -4599,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -4611,16 +4611,16 @@
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>0.003</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4663,7 +4663,7 @@
         <v>0.975</v>
       </c>
       <c r="J40" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K40" t="n">
         <v>145.89</v>
@@ -4681,7 +4681,7 @@
         <v>4797</v>
       </c>
       <c r="P40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
         <v>0.12</v>
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -4717,16 +4717,16 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         <v>0.003</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4769,7 +4769,7 @@
         <v>0.975</v>
       </c>
       <c r="J41" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K41" t="n">
         <v>145.89</v>
@@ -4787,7 +4787,7 @@
         <v>4797</v>
       </c>
       <c r="P41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
         <v>0.12</v>
@@ -4811,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -4823,16 +4823,16 @@
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>0.003</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4875,7 +4875,7 @@
         <v>0.975</v>
       </c>
       <c r="J42" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K42" t="n">
         <v>145.89</v>
@@ -4893,7 +4893,7 @@
         <v>4797</v>
       </c>
       <c r="P42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
         <v>0.12</v>
@@ -4917,10 +4917,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -4929,16 +4929,16 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>0.003</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4981,7 +4981,7 @@
         <v>0.975</v>
       </c>
       <c r="J43" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K43" t="n">
         <v>145.89</v>
@@ -4999,7 +4999,7 @@
         <v>4797</v>
       </c>
       <c r="P43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
         <v>0.12</v>
@@ -5023,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -5035,16 +5035,16 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>0.003</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5087,7 +5087,7 @@
         <v>0.975</v>
       </c>
       <c r="J44" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K44" t="n">
         <v>145.89</v>
@@ -5105,7 +5105,7 @@
         <v>4797</v>
       </c>
       <c r="P44" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
         <v>0.12</v>
@@ -5129,10 +5129,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>0.003</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5193,7 +5193,7 @@
         <v>0.975</v>
       </c>
       <c r="J45" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K45" t="n">
         <v>145.89</v>
@@ -5211,7 +5211,7 @@
         <v>4797</v>
       </c>
       <c r="P45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
         <v>0.12</v>
@@ -5235,10 +5235,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -5247,16 +5247,16 @@
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>0.003</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5299,7 +5299,7 @@
         <v>0.975</v>
       </c>
       <c r="J46" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K46" t="n">
         <v>145.89</v>
@@ -5317,7 +5317,7 @@
         <v>4797</v>
       </c>
       <c r="P46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
         <v>0.12</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -5353,16 +5353,16 @@
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>0.003</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5405,7 +5405,7 @@
         <v>0.975</v>
       </c>
       <c r="J47" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K47" t="n">
         <v>145.89</v>
@@ -5423,7 +5423,7 @@
         <v>4797</v>
       </c>
       <c r="P47" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
         <v>0.12</v>
@@ -5447,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -5459,16 +5459,16 @@
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>0.003</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5511,7 +5511,7 @@
         <v>0.975</v>
       </c>
       <c r="J48" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K48" t="n">
         <v>145.89</v>
@@ -5529,7 +5529,7 @@
         <v>4797</v>
       </c>
       <c r="P48" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
         <v>0.12</v>
@@ -5553,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
@@ -5565,16 +5565,16 @@
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>0.003</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5617,7 +5617,7 @@
         <v>0.975</v>
       </c>
       <c r="J49" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K49" t="n">
         <v>145.89</v>
@@ -5635,7 +5635,7 @@
         <v>4797</v>
       </c>
       <c r="P49" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
         <v>0.12</v>
@@ -5659,10 +5659,10 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -5671,16 +5671,16 @@
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>0.003</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5723,7 +5723,7 @@
         <v>0.975</v>
       </c>
       <c r="J50" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K50" t="n">
         <v>145.89</v>
@@ -5741,7 +5741,7 @@
         <v>4797</v>
       </c>
       <c r="P50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
         <v>0.12</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
@@ -5777,16 +5777,16 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>0.003</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5829,7 +5829,7 @@
         <v>0.975</v>
       </c>
       <c r="J51" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K51" t="n">
         <v>145.89</v>
@@ -5847,7 +5847,7 @@
         <v>4797</v>
       </c>
       <c r="P51" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
         <v>0.12</v>
@@ -5871,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
@@ -5883,16 +5883,16 @@
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>0.003</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5935,7 +5935,7 @@
         <v>0.975</v>
       </c>
       <c r="J52" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K52" t="n">
         <v>145.89</v>
@@ -5953,7 +5953,7 @@
         <v>4797</v>
       </c>
       <c r="P52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>0.12</v>
@@ -5977,10 +5977,10 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
@@ -5989,16 +5989,16 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>0.003</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6041,7 +6041,7 @@
         <v>0.975</v>
       </c>
       <c r="J53" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K53" t="n">
         <v>145.89</v>
@@ -6059,7 +6059,7 @@
         <v>4797</v>
       </c>
       <c r="P53" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
         <v>0.12</v>
@@ -6083,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
@@ -6095,16 +6095,16 @@
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>0.003</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -6147,7 +6147,7 @@
         <v>0.975</v>
       </c>
       <c r="J54" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K54" t="n">
         <v>145.89</v>
@@ -6165,7 +6165,7 @@
         <v>4797</v>
       </c>
       <c r="P54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
         <v>0.12</v>
@@ -6189,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -6201,16 +6201,16 @@
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>0.003</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -6253,7 +6253,7 @@
         <v>0.975</v>
       </c>
       <c r="J55" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K55" t="n">
         <v>145.89</v>
@@ -6271,7 +6271,7 @@
         <v>4797</v>
       </c>
       <c r="P55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
         <v>0.12</v>
@@ -6295,10 +6295,10 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -6307,16 +6307,16 @@
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>0.003</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -6359,7 +6359,7 @@
         <v>0.975</v>
       </c>
       <c r="J56" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K56" t="n">
         <v>145.89</v>
@@ -6377,7 +6377,7 @@
         <v>4797</v>
       </c>
       <c r="P56" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
         <v>0.12</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -6413,16 +6413,16 @@
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>0.003</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6465,7 +6465,7 @@
         <v>0.975</v>
       </c>
       <c r="J57" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K57" t="n">
         <v>145.89</v>
@@ -6483,7 +6483,7 @@
         <v>4797</v>
       </c>
       <c r="P57" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
         <v>0.12</v>
@@ -6507,10 +6507,10 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -6519,16 +6519,16 @@
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>0.003</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -6571,7 +6571,7 @@
         <v>0.975</v>
       </c>
       <c r="J58" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K58" t="n">
         <v>145.89</v>
@@ -6589,7 +6589,7 @@
         <v>4797</v>
       </c>
       <c r="P58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
         <v>0.12</v>
@@ -6613,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -6625,16 +6625,16 @@
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF58" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>0.003</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -6677,7 +6677,7 @@
         <v>0.975</v>
       </c>
       <c r="J59" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K59" t="n">
         <v>145.89</v>
@@ -6695,7 +6695,7 @@
         <v>4797</v>
       </c>
       <c r="P59" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q59" t="n">
         <v>0.12</v>
@@ -6719,10 +6719,10 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
@@ -6731,16 +6731,16 @@
         <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF59" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>0.003</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6783,7 +6783,7 @@
         <v>0.975</v>
       </c>
       <c r="J60" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K60" t="n">
         <v>145.89</v>
@@ -6801,7 +6801,7 @@
         <v>4797</v>
       </c>
       <c r="P60" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="n">
         <v>0.12</v>
@@ -6825,10 +6825,10 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
@@ -6837,16 +6837,16 @@
         <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF60" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>0.003</v>
       </c>
       <c r="AH60" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -6889,7 +6889,7 @@
         <v>0.975</v>
       </c>
       <c r="J61" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K61" t="n">
         <v>145.89</v>
@@ -6907,7 +6907,7 @@
         <v>4797</v>
       </c>
       <c r="P61" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
         <v>0.12</v>
@@ -6931,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
@@ -6943,16 +6943,16 @@
         <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF61" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>0.003</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6995,7 +6995,7 @@
         <v>0.975</v>
       </c>
       <c r="J62" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K62" t="n">
         <v>145.89</v>
@@ -7013,7 +7013,7 @@
         <v>4797</v>
       </c>
       <c r="P62" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q62" t="n">
         <v>0.12</v>
@@ -7037,10 +7037,10 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
@@ -7049,16 +7049,16 @@
         <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>0.003</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7101,7 +7101,7 @@
         <v>0.975</v>
       </c>
       <c r="J63" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K63" t="n">
         <v>145.89</v>
@@ -7119,7 +7119,7 @@
         <v>4797</v>
       </c>
       <c r="P63" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q63" t="n">
         <v>0.12</v>
@@ -7143,10 +7143,10 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
@@ -7155,16 +7155,16 @@
         <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE63" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF63" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>0.003</v>
       </c>
       <c r="AH63" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -7207,7 +7207,7 @@
         <v>0.975</v>
       </c>
       <c r="J64" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K64" t="n">
         <v>145.89</v>
@@ -7225,7 +7225,7 @@
         <v>4797</v>
       </c>
       <c r="P64" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q64" t="n">
         <v>0.12</v>
@@ -7249,10 +7249,10 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
@@ -7261,16 +7261,16 @@
         <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE64" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF64" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>0.003</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7313,7 +7313,7 @@
         <v>0.975</v>
       </c>
       <c r="J65" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K65" t="n">
         <v>145.89</v>
@@ -7331,7 +7331,7 @@
         <v>4797</v>
       </c>
       <c r="P65" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q65" t="n">
         <v>0.12</v>
@@ -7355,10 +7355,10 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -7367,16 +7367,16 @@
         <v>0</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE65" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF65" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>0.003</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -7419,7 +7419,7 @@
         <v>0.975</v>
       </c>
       <c r="J66" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K66" t="n">
         <v>145.89</v>
@@ -7437,7 +7437,7 @@
         <v>4797</v>
       </c>
       <c r="P66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q66" t="n">
         <v>0.12</v>
@@ -7461,10 +7461,10 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
@@ -7473,16 +7473,16 @@
         <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>0.003</v>
       </c>
       <c r="AH66" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -7525,7 +7525,7 @@
         <v>0.975</v>
       </c>
       <c r="J67" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K67" t="n">
         <v>145.89</v>
@@ -7543,7 +7543,7 @@
         <v>4797</v>
       </c>
       <c r="P67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
         <v>0.12</v>
@@ -7567,10 +7567,10 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
@@ -7579,16 +7579,16 @@
         <v>0</v>
       </c>
       <c r="AB67" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE67" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>0.003</v>
       </c>
       <c r="AH67" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -7631,7 +7631,7 @@
         <v>0.975</v>
       </c>
       <c r="J68" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K68" t="n">
         <v>145.89</v>
@@ -7649,7 +7649,7 @@
         <v>4797</v>
       </c>
       <c r="P68" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q68" t="n">
         <v>0.12</v>
@@ -7673,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -7685,16 +7685,16 @@
         <v>0</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE68" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF68" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>0.003</v>
       </c>
       <c r="AH68" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -7737,7 +7737,7 @@
         <v>0.975</v>
       </c>
       <c r="J69" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K69" t="n">
         <v>145.89</v>
@@ -7755,7 +7755,7 @@
         <v>4797</v>
       </c>
       <c r="P69" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
         <v>0.12</v>
@@ -7779,10 +7779,10 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -7791,16 +7791,16 @@
         <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF69" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>0.003</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -7843,7 +7843,7 @@
         <v>0.975</v>
       </c>
       <c r="J70" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K70" t="n">
         <v>145.89</v>
@@ -7861,7 +7861,7 @@
         <v>4797</v>
       </c>
       <c r="P70" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q70" t="n">
         <v>0.12</v>
@@ -7885,10 +7885,10 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
@@ -7897,16 +7897,16 @@
         <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC70" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE70" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF70" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>0.003</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -7949,7 +7949,7 @@
         <v>0.975</v>
       </c>
       <c r="J71" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K71" t="n">
         <v>145.89</v>
@@ -7967,7 +7967,7 @@
         <v>4797</v>
       </c>
       <c r="P71" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
         <v>0.12</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
@@ -8003,16 +8003,16 @@
         <v>0</v>
       </c>
       <c r="AB71" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC71" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE71" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF71" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>0.003</v>
       </c>
       <c r="AH71" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -8055,7 +8055,7 @@
         <v>0.975</v>
       </c>
       <c r="J72" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K72" t="n">
         <v>145.89</v>
@@ -8073,7 +8073,7 @@
         <v>4797</v>
       </c>
       <c r="P72" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="n">
         <v>0.12</v>
@@ -8097,10 +8097,10 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
@@ -8109,16 +8109,16 @@
         <v>0</v>
       </c>
       <c r="AB72" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC72" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE72" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>0.003</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -8161,7 +8161,7 @@
         <v>0.975</v>
       </c>
       <c r="J73" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K73" t="n">
         <v>145.89</v>
@@ -8179,7 +8179,7 @@
         <v>4797</v>
       </c>
       <c r="P73" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
         <v>0.12</v>
@@ -8203,10 +8203,10 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z73" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC73" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF73" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>0.003</v>
       </c>
       <c r="AH73" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -8267,7 +8267,7 @@
         <v>0.975</v>
       </c>
       <c r="J74" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K74" t="n">
         <v>145.89</v>
@@ -8285,7 +8285,7 @@
         <v>4797</v>
       </c>
       <c r="P74" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="n">
         <v>0.12</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z74" t="n">
         <v>0</v>
@@ -8321,16 +8321,16 @@
         <v>0</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE74" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF74" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>0.003</v>
       </c>
       <c r="AH74" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -8373,7 +8373,7 @@
         <v>0.975</v>
       </c>
       <c r="J75" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K75" t="n">
         <v>145.89</v>
@@ -8391,7 +8391,7 @@
         <v>4797</v>
       </c>
       <c r="P75" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="n">
         <v>0.12</v>
@@ -8415,10 +8415,10 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z75" t="n">
         <v>0</v>
@@ -8427,16 +8427,16 @@
         <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF75" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>0.003</v>
       </c>
       <c r="AH75" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -8479,7 +8479,7 @@
         <v>0.975</v>
       </c>
       <c r="J76" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K76" t="n">
         <v>145.89</v>
@@ -8497,7 +8497,7 @@
         <v>4797</v>
       </c>
       <c r="P76" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q76" t="n">
         <v>0.12</v>
@@ -8521,10 +8521,10 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z76" t="n">
         <v>0</v>
@@ -8533,16 +8533,16 @@
         <v>0</v>
       </c>
       <c r="AB76" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC76" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE76" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF76" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>0.003</v>
       </c>
       <c r="AH76" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -8585,7 +8585,7 @@
         <v>0.975</v>
       </c>
       <c r="J77" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K77" t="n">
         <v>145.89</v>
@@ -8603,7 +8603,7 @@
         <v>4797</v>
       </c>
       <c r="P77" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="n">
         <v>0.12</v>
@@ -8627,10 +8627,10 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z77" t="n">
         <v>0</v>
@@ -8639,16 +8639,16 @@
         <v>0</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC77" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE77" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF77" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>0.003</v>
       </c>
       <c r="AH77" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -8691,7 +8691,7 @@
         <v>0.975</v>
       </c>
       <c r="J78" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K78" t="n">
         <v>145.89</v>
@@ -8709,7 +8709,7 @@
         <v>4797</v>
       </c>
       <c r="P78" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q78" t="n">
         <v>0.12</v>
@@ -8733,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z78" t="n">
         <v>0</v>
@@ -8745,16 +8745,16 @@
         <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE78" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF78" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>0.003</v>
       </c>
       <c r="AH78" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -8797,7 +8797,7 @@
         <v>0.975</v>
       </c>
       <c r="J79" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K79" t="n">
         <v>145.89</v>
@@ -8815,7 +8815,7 @@
         <v>4797</v>
       </c>
       <c r="P79" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="n">
         <v>0.12</v>
@@ -8839,10 +8839,10 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z79" t="n">
         <v>0</v>
@@ -8851,16 +8851,16 @@
         <v>0</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE79" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF79" t="inlineStr">
         <is>
@@ -8871,7 +8871,7 @@
         <v>0.003</v>
       </c>
       <c r="AH79" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -8903,7 +8903,7 @@
         <v>0.975</v>
       </c>
       <c r="J80" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K80" t="n">
         <v>145.89</v>
@@ -8921,7 +8921,7 @@
         <v>4797</v>
       </c>
       <c r="P80" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="n">
         <v>0.12</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z80" t="n">
         <v>0</v>
@@ -8957,16 +8957,16 @@
         <v>0</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC80" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD80" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE80" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF80" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>0.003</v>
       </c>
       <c r="AH80" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -9009,7 +9009,7 @@
         <v>0.975</v>
       </c>
       <c r="J81" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K81" t="n">
         <v>145.89</v>
@@ -9027,7 +9027,7 @@
         <v>4797</v>
       </c>
       <c r="P81" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="n">
         <v>0.12</v>
@@ -9051,10 +9051,10 @@
         <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z81" t="n">
         <v>0</v>
@@ -9063,16 +9063,16 @@
         <v>0</v>
       </c>
       <c r="AB81" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE81" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF81" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>0.003</v>
       </c>
       <c r="AH81" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -9115,7 +9115,7 @@
         <v>0.975</v>
       </c>
       <c r="J82" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K82" t="n">
         <v>145.89</v>
@@ -9133,7 +9133,7 @@
         <v>4797</v>
       </c>
       <c r="P82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q82" t="n">
         <v>0.12</v>
@@ -9157,10 +9157,10 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z82" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>0</v>
       </c>
       <c r="AB82" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF82" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>0.003</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -9221,7 +9221,7 @@
         <v>0.975</v>
       </c>
       <c r="J83" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K83" t="n">
         <v>145.89</v>
@@ -9239,7 +9239,7 @@
         <v>4797</v>
       </c>
       <c r="P83" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q83" t="n">
         <v>0.12</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="X83" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z83" t="n">
         <v>0</v>
@@ -9275,16 +9275,16 @@
         <v>0</v>
       </c>
       <c r="AB83" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE83" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF83" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>0.003</v>
       </c>
       <c r="AH83" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -9327,7 +9327,7 @@
         <v>0.975</v>
       </c>
       <c r="J84" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K84" t="n">
         <v>145.89</v>
@@ -9345,7 +9345,7 @@
         <v>4797</v>
       </c>
       <c r="P84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q84" t="n">
         <v>0.12</v>
@@ -9369,10 +9369,10 @@
         <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z84" t="n">
         <v>0</v>
@@ -9381,16 +9381,16 @@
         <v>0</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD84" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF84" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>0.003</v>
       </c>
       <c r="AH84" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -9433,7 +9433,7 @@
         <v>0.975</v>
       </c>
       <c r="J85" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K85" t="n">
         <v>145.89</v>
@@ -9451,7 +9451,7 @@
         <v>4797</v>
       </c>
       <c r="P85" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q85" t="n">
         <v>0.12</v>
@@ -9475,10 +9475,10 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z85" t="n">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>0</v>
       </c>
       <c r="AB85" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD85" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE85" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF85" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>0.003</v>
       </c>
       <c r="AH85" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -9539,7 +9539,7 @@
         <v>0.975</v>
       </c>
       <c r="J86" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K86" t="n">
         <v>145.89</v>
@@ -9557,7 +9557,7 @@
         <v>4797</v>
       </c>
       <c r="P86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q86" t="n">
         <v>0.12</v>
@@ -9581,10 +9581,10 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z86" t="n">
         <v>0</v>
@@ -9593,16 +9593,16 @@
         <v>0</v>
       </c>
       <c r="AB86" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC86" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE86" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF86" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         <v>0.003</v>
       </c>
       <c r="AH86" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -9645,7 +9645,7 @@
         <v>0.975</v>
       </c>
       <c r="J87" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K87" t="n">
         <v>145.89</v>
@@ -9663,7 +9663,7 @@
         <v>4797</v>
       </c>
       <c r="P87" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="n">
         <v>0.12</v>
@@ -9687,10 +9687,10 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z87" t="n">
         <v>0</v>
@@ -9699,16 +9699,16 @@
         <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC87" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD87" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF87" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>0.003</v>
       </c>
       <c r="AH87" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -9751,7 +9751,7 @@
         <v>0.975</v>
       </c>
       <c r="J88" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K88" t="n">
         <v>145.89</v>
@@ -9769,7 +9769,7 @@
         <v>4797</v>
       </c>
       <c r="P88" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q88" t="n">
         <v>0.12</v>
@@ -9793,10 +9793,10 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z88" t="n">
         <v>0</v>
@@ -9805,16 +9805,16 @@
         <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC88" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE88" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF88" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>0.003</v>
       </c>
       <c r="AH88" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -9857,7 +9857,7 @@
         <v>0.975</v>
       </c>
       <c r="J89" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K89" t="n">
         <v>145.89</v>
@@ -9875,7 +9875,7 @@
         <v>4797</v>
       </c>
       <c r="P89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q89" t="n">
         <v>0.12</v>
@@ -9899,10 +9899,10 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z89" t="n">
         <v>0</v>
@@ -9911,16 +9911,16 @@
         <v>0</v>
       </c>
       <c r="AB89" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC89" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD89" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF89" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>0.003</v>
       </c>
       <c r="AH89" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -9963,7 +9963,7 @@
         <v>0.975</v>
       </c>
       <c r="J90" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K90" t="n">
         <v>145.89</v>
@@ -9981,7 +9981,7 @@
         <v>4797</v>
       </c>
       <c r="P90" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q90" t="n">
         <v>0.12</v>
@@ -10005,10 +10005,10 @@
         <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z90" t="n">
         <v>0</v>
@@ -10017,16 +10017,16 @@
         <v>0</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC90" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE90" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF90" t="inlineStr">
         <is>
@@ -10037,7 +10037,7 @@
         <v>0.003</v>
       </c>
       <c r="AH90" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -10069,7 +10069,7 @@
         <v>0.975</v>
       </c>
       <c r="J91" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K91" t="n">
         <v>145.89</v>
@@ -10087,7 +10087,7 @@
         <v>4797</v>
       </c>
       <c r="P91" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q91" t="n">
         <v>0.12</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z91" t="n">
         <v>0</v>
@@ -10123,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="AB91" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC91" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE91" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF91" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>0.003</v>
       </c>
       <c r="AH91" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -10175,7 +10175,7 @@
         <v>0.975</v>
       </c>
       <c r="J92" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K92" t="n">
         <v>145.89</v>
@@ -10193,7 +10193,7 @@
         <v>4797</v>
       </c>
       <c r="P92" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q92" t="n">
         <v>0.12</v>
@@ -10217,10 +10217,10 @@
         <v>0</v>
       </c>
       <c r="X92" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z92" t="n">
         <v>0</v>
@@ -10229,16 +10229,16 @@
         <v>0</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC92" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE92" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF92" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>0.003</v>
       </c>
       <c r="AH92" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -10281,7 +10281,7 @@
         <v>0.975</v>
       </c>
       <c r="J93" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K93" t="n">
         <v>145.89</v>
@@ -10299,7 +10299,7 @@
         <v>4797</v>
       </c>
       <c r="P93" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q93" t="n">
         <v>0.12</v>
@@ -10323,10 +10323,10 @@
         <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z93" t="n">
         <v>0</v>
@@ -10335,16 +10335,16 @@
         <v>0</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC93" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE93" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF93" t="inlineStr">
         <is>
@@ -10355,7 +10355,7 @@
         <v>0.003</v>
       </c>
       <c r="AH93" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -10387,7 +10387,7 @@
         <v>0.975</v>
       </c>
       <c r="J94" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K94" t="n">
         <v>145.89</v>
@@ -10405,7 +10405,7 @@
         <v>4797</v>
       </c>
       <c r="P94" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q94" t="n">
         <v>0.12</v>
@@ -10429,10 +10429,10 @@
         <v>0</v>
       </c>
       <c r="X94" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z94" t="n">
         <v>0</v>
@@ -10441,16 +10441,16 @@
         <v>0</v>
       </c>
       <c r="AB94" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC94" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD94" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE94" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF94" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>0.003</v>
       </c>
       <c r="AH94" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -10493,7 +10493,7 @@
         <v>0.975</v>
       </c>
       <c r="J95" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K95" t="n">
         <v>145.89</v>
@@ -10511,7 +10511,7 @@
         <v>4797</v>
       </c>
       <c r="P95" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q95" t="n">
         <v>0.12</v>
@@ -10535,10 +10535,10 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>23643.7088248818</v>
+        <v>23833.8924529792</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.6280286991558141</v>
+        <v>0.579582898547526</v>
       </c>
       <c r="Z95" t="n">
         <v>0</v>
@@ -10547,16 +10547,16 @@
         <v>0</v>
       </c>
       <c r="AB95" t="n">
-        <v>0</v>
+        <v>0.00289350468230999</v>
       </c>
       <c r="AC95" t="n">
-        <v>0.0625563615577952</v>
+        <v>0.0881456997739181</v>
       </c>
       <c r="AD95" t="n">
-        <v>0.000869231290442256</v>
+        <v>0</v>
       </c>
       <c r="AE95" t="n">
-        <v>1.15</v>
+        <v>1.04322951829105</v>
       </c>
       <c r="AF95" t="inlineStr">
         <is>
@@ -10567,7 +10567,113 @@
         <v>0.003</v>
       </c>
       <c r="AH95" t="n">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>239000</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C96" t="n">
+        <v>24</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F96" t="n">
+        <v>101.96</v>
+      </c>
+      <c r="G96" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.848535286284953</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.0008729999999999998</v>
+      </c>
+      <c r="K96" t="n">
+        <v>145.89</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.4034</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.5189</v>
+      </c>
+      <c r="O96" t="n">
+        <v>4797</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T96" t="n">
+        <v>10000</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>23833.8924529792</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.579582898547526</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0.00289350468230999</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0.0881456997739181</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.04322951829105</v>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="AG96" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
